--- a/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 30,85</t>
+          <t>-16,45; 29,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 36,88</t>
+          <t>-17,81; 31,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 37,04</t>
+          <t>-18,31; 38,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 385,61</t>
+          <t>-61,35; 321,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 317,07</t>
+          <t>-49,66; 310,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 200,44</t>
+          <t>-42,31; 216,02</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 11,25</t>
+          <t>-12,72; 12,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 24,07</t>
+          <t>0,86; 24,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 25,12</t>
+          <t>4,69; 26,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 43,6</t>
+          <t>-33,4; 48,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 135,93</t>
+          <t>3,21; 142,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,33; 188,69</t>
+          <t>15,93; 188,17</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 15,23</t>
+          <t>-5,96; 14,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 28,11</t>
+          <t>6,91; 28,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 21,5</t>
+          <t>2,21; 20,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 57,35</t>
+          <t>-15,73; 54,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 129,14</t>
+          <t>18,26; 122,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 102,92</t>
+          <t>7,22; 102,16</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 24,53</t>
+          <t>2,89; 24,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 22,76</t>
+          <t>-1,82; 23,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 26,09</t>
+          <t>3,89; 27,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 163,8</t>
+          <t>9,13; 158,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 123,5</t>
+          <t>-6,07; 117,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 161,88</t>
+          <t>8,87; 154,42</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 22,55</t>
+          <t>5,01; 23,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,65</t>
+          <t>-2,39; 16,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 25,58</t>
+          <t>8,15; 25,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 136,82</t>
+          <t>16,64; 141,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 82,3</t>
+          <t>-7,14; 82,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,82; 203,24</t>
+          <t>39,64; 189,62</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,39; 13,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,61; 17,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,84; 19,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>8,01; 55,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>22,0; 76,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>41,53; 102,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 29,56</t>
+          <t>-15,36; 28,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 31,45</t>
+          <t>-17,4; 35,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 38,88</t>
+          <t>-17,68; 38,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 321,86</t>
+          <t>-51,31; 392,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 310,82</t>
+          <t>-49,96; 269,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 216,02</t>
+          <t>-41,08; 198,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 12,11</t>
+          <t>-14,27; 12,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 24,04</t>
+          <t>1,57; 24,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 26,02</t>
+          <t>5,65; 26,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 48,66</t>
+          <t>-36,27; 54,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 142,11</t>
+          <t>3,88; 135,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 188,17</t>
+          <t>20,3; 195,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 14,81</t>
+          <t>-5,27; 15,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 28,05</t>
+          <t>4,36; 27,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 20,87</t>
+          <t>2,76; 21,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 54,17</t>
+          <t>-14,47; 55,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 122,51</t>
+          <t>12,76; 119,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 102,16</t>
+          <t>9,76; 106,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 24,24</t>
+          <t>1,7; 25,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 23,98</t>
+          <t>-2,97; 23,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 27,38</t>
+          <t>3,51; 28,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 158,54</t>
+          <t>3,63; 159,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 117,96</t>
+          <t>-10,04; 125,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 154,42</t>
+          <t>10,28; 171,56</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 23,12</t>
+          <t>4,09; 22,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 16,37</t>
+          <t>-2,75; 16,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 25,0</t>
+          <t>9,4; 25,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 141,37</t>
+          <t>15,81; 144,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 82,55</t>
+          <t>-8,97; 82,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 189,62</t>
+          <t>43,89; 196,99</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,17</t>
+          <t>2,4; 13,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,68</t>
+          <t>6,22; 17,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,4</t>
+          <t>10,02; 20,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 55,56</t>
+          <t>8,13; 56,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 76,68</t>
+          <t>20,98; 74,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,53; 102,59</t>
+          <t>42,59; 105,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 28,82</t>
+          <t>-15,91; 30,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 35,06</t>
+          <t>-15,95; 36,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 38,55</t>
+          <t>-18,83; 37,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 392,2</t>
+          <t>-59,68; 385,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 269,03</t>
+          <t>-45,41; 317,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 198,22</t>
+          <t>-43,06; 200,44</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 12,45</t>
+          <t>-13,94; 11,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 24,29</t>
+          <t>0,63; 24,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 26,62</t>
+          <t>4,59; 25,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 54,5</t>
+          <t>-36,07; 43,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 135,9</t>
+          <t>1,45; 135,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,3; 195,88</t>
+          <t>16,33; 188,69</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 15,6</t>
+          <t>-6,05; 15,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 27,64</t>
+          <t>6,68; 28,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 21,1</t>
+          <t>2,73; 21,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 55,61</t>
+          <t>-16,84; 57,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 119,53</t>
+          <t>19,1; 129,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 106,03</t>
+          <t>8,98; 102,92</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 25,11</t>
+          <t>1,61; 24,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 23,56</t>
+          <t>-4,97; 22,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 28,34</t>
+          <t>3,12; 26,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 159,63</t>
+          <t>3,76; 163,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 125,1</t>
+          <t>-13,83; 123,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 171,56</t>
+          <t>12,24; 161,88</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 22,68</t>
+          <t>3,56; 22,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 16,72</t>
+          <t>-2,54; 16,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 25,74</t>
+          <t>8,29; 25,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,81; 144,04</t>
+          <t>13,16; 136,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 82,66</t>
+          <t>-8,44; 82,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,89; 196,99</t>
+          <t>39,82; 203,24</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,2</t>
+          <t>2,38; 13,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,2</t>
+          <t>6,4; 17,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,08</t>
+          <t>9,57; 19,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 56,4</t>
+          <t>5,96; 54,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 74,66</t>
+          <t>21,23; 74,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,59; 105,46</t>
+          <t>39,71; 102,58</t>
         </is>
       </c>
     </row>
